--- a/data/analysis/pattern_comparison.xlsx
+++ b/data/analysis/pattern_comparison.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)', '[ée]cosyst[èe]m---(pollution|résilience)']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'climat---environnement---ecologie', 'ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)', '[ée]cosyst[èe]m---(pollution|résilience)']</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['[ée]nerg[^ ]+ (?:renouvelab[^ ]+|vertes?|eolien|solaire|fossile)---environnement', '(architecture|construction) durable---ecologi---materia(ux|ls)']</t>
+          <t>['[ée]nerg[^ ]+ (?:renouvelab[^ ]+|vertes?|eolien|solaire|fossile)---environnement', 'climat---environnement---ecologie', '(architecture|construction) durable---ecologi---materia(ux|ls)']</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['climat---environnement---ecologie']</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', 'agro[- ]?[ée]colo[^ ]+', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)', 'agro[- ]?[ée]colo[^ ]+', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)']</t>
+          <t>['climat---environnement---ecologie', 'ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)']</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)']</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['biodiversity---(collapse|extinction|impact|destruction)']</t>
+          <t>['biodiversity---(collapse|extinction|impact|destruction)---(environment|ecology|ecosystem)']</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['gestion environnement---ecologi---impact', '(durabilite|materiaux)---analyse (du )?cycle de vie']</t>
+          <t>['climat---environnement---ecologie', 'gestion environnement---ecologi---impact', '(durabilite|materiaux)---analyse (du )?cycle de vie']</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', 'ecologi---(anthropocene|transition (energetique|sociale|climatiq))', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'developpement durable---(anthropocene|transition (energ|social|climat))']</t>
+          <t>['climat---environnement---ecologie', 'ecologi---(anthropocene|transition (energetique|sociale|climatiq))', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'developpement durable---(anthropocene|transition (energ|social|climat))']</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', 'ecologi---(anthropocene|transition (energetique|sociale|climatiq))']</t>
+          <t>['ecologi---(anthropocene|transition (energetique|sociale|climatiq))']</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)']</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,71 +3391,71 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)</t>
+          <t>climat---environnement---ecologie</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>(?:[ée]missions? )?(?:de )?gaz (?:[àa] )?(?:effets? )(?:de )?serre</t>
+          <t>ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>justice climat[^ ]+</t>
+          <t>(?:[ée]missions? )?(?:de )?gaz (?:[àa] )?(?:effets? )(?:de )?serre</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>risque[^ ]+ clima[^ ]+</t>
+          <t>justice climat[^ ]+</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>bas[- ]carbon[^ ]+</t>
+          <t>risque[^ ]+ clima[^ ]+</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3471,7 +3471,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>politiques? climat[^ ]+</t>
+          <t>bas[- ]carbon[^ ]+</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3487,7 +3487,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>accords? de paris(?:(?: sur| pour) le climat)?</t>
+          <t>politiques? climat[^ ]+</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3503,39 +3503,39 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>glaciolog---climatolog---(modelisation|thermodynamiq|atmospher)</t>
+          <t>accords? de paris(?:(?: sur| pour) le climat)?</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>processus clima[^ ]+</t>
+          <t>glaciolog---climatolog---(modelisation|thermodynamiq|atmospher)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>(?:carbon dyoxide|co2?) emissions?</t>
+          <t>processus clima[^ ]+</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3551,7 +3551,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>(?:carbon|co2?) (?:capture|conversion|valuation|sequestration)</t>
+          <t>(?:carbon dyoxide|co2?) emissions?</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3567,43 +3567,43 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>energy (performance|consumption)---(sustainability|sustainable (solutions|development))---environment</t>
+          <t>(?:carbon|co2?) (?:capture|conversion|valuation|sequestration)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>(?:green|renewable|low carbon) energy</t>
+          <t>energy (performance|consumption)---(sustainability|sustainable (solutions|development))---environment</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>(?:photovoltaic|solar|geothermal|hydro(electric)?)+( |-)?(energy|power)</t>
+          <t>(?:green|renewable|low carbon) energy</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3615,151 +3615,151 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>energy (?:consumption|use|efficiency|vector|assessment)</t>
+          <t>(?:photovoltaic|solar|geothermal|hydro(electric)?)+( |-)?(energy|power)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sustainab(ility|le)---mobility</t>
+          <t>energy (?:consumption|use|efficiency|vector|assessment)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>(?:^|[^a-z])cop ?[0-9]+</t>
+          <t>sustainab(ility|le)---mobility</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>greenhouse gas(es)?</t>
+          <t>(?:^|[^a-z])cop ?[0-9]+</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>(circular|regenerative) economy</t>
+          <t>greenhouse gas(es)?</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>transiti[^ ]+ [ée]nerg[^ ]+</t>
+          <t>(circular|regenerative) economy</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ecologi---(anthropocene|transition (energetique|sociale|climatiq))</t>
+          <t>transiti[^ ]+ [ée]nerg[^ ]+</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)</t>
+          <t>ecologi---(anthropocene|transition (energetique|sociale|climatiq))</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>architectures? durab[^ ]+</t>
+          <t>(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>[ée]nerg[^ ]+ (?:renouvelab[^ ]+|vertes?|eolien|solaire|fossile)---environnement</t>
+          <t>architectures? durab[^ ]+</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3775,11 +3775,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>(architecture|construction) durable---ecologi---materia(ux|ls)</t>
+          <t>[ée]nerg[^ ]+ (?:renouvelab[^ ]+|vertes?|eolien|solaire|fossile)---environnement</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3791,11 +3791,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>low energy---sustainability</t>
+          <t>(architecture|construction) durable---ecologi---materia(ux|ls)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3807,33 +3807,33 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>nucleaire---pollu(ant|tion)---environnement</t>
+          <t>low energy---sustainability</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ecologi---climat---(elevage|culture|territoire)</t>
+          <t>nucleaire---pollu(ant|tion)---environnement</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3855,46 +3855,46 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>degradation---ecosystem---environnement</t>
+          <t>ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>biodiversity---(collapse|extinction|impact|destruction)</t>
+          <t>degradation---ecosystem---environnement</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>conception bioclimatiq---durab(ilite|le)---systemes? energetiques?</t>
+          <t>biodiversity---(collapse|extinction|impact|destruction)---(environment|ecology|ecosystem)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3903,30 +3903,30 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>droit (de l')?environnement---protection (de l')environnement</t>
+          <t>conception bioclimatiq---durab(ilite|le)---systemes? energetiques?</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>analyse de cycle de vie</t>
+          <t>droit (de l')?environnement---protection (de l')environnement</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
@@ -3935,14 +3935,14 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>gestion environnement---ecologi---impact</t>
+          <t>analyse de cycle de vie</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -3951,30 +3951,30 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>(durabilite|materiaux)---analyse (du )?cycle de vie</t>
+          <t>gestion environnement---ecologi---impact</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ecologi---(political ecology|ecologie politique)---environnement</t>
+          <t>(durabilite|materiaux)---analyse (du )?cycle de vie</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>2</v>
@@ -3983,14 +3983,14 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>economie ecologique</t>
+          <t>ecologi---(political ecology|ecologie politique)---environnement</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
@@ -3999,39 +3999,39 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement</t>
+          <t>economie ecologique</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>environmental challenge</t>
+          <t>developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>developpement durable---(anthropocene|transition (energ|social|climat))</t>
+          <t>environmental challenge</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -4047,14 +4047,14 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ecologi---multispecies stud(y|ies)---environnement</t>
+          <t>developpement durable---(anthropocene|transition (energ|social|climat))</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>developpements? durables?---transition</t>
+          <t>ecologi---multispecies stud(y|ies)---environnement</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -4073,33 +4073,33 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>chimie verte---developpement durable</t>
+          <t>developpements? durables?---transition</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>ecological economics</t>
+          <t>chimie verte---developpement durable</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>developpement durable---materia(ux|ls)---gisement</t>
+          <t>ecological economics</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -4121,17 +4121,17 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>gestio[^ ]+ durab[^ ]+</t>
+          <t>developpement durable---materia(ux|ls)---gisement</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -4143,16 +4143,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
+          <t>gestio[^ ]+ durab[^ ]+</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
           <t>sustainable development goals</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4167,7 +4183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4366,7 +4382,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>["impacts? (de l'|des )(homme|humanité|industrie)---cycles? bio-?geo-?(chimique|physique)", 'ecologi---climat---(elevage|culture|territoire)', '[ée]cosyst[èe]m---(pollution|résilience)', 'biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
+          <t>["impacts? (de l'|des )(homme|humanité|industrie)---cycles? bio-?geo-?(chimique|physique)", 'climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)', '[ée]cosyst[èe]m---(pollution|résilience)', 'biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4410,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>["impacts? (de l'|des )(homme|humanité|industrie)---cycles? bio-?geo-?(chimique|physique)", 'ecologi---climat---(elevage|culture|territoire)', '[ée]cosyst[èe]m---(pollution|résilience)', 'biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
+          <t>["impacts? (de l'|des )(homme|humanité|industrie)---cycles? bio-?geo-?(chimique|physique)", 'climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)', '[ée]cosyst[èe]m---(pollution|résilience)', 'biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4494,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'climat---environnement---ecologie']</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4522,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'climat---environnement---ecologie']</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4606,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)']</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4690,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'adaptations? (?:aux? )(?:changements? )climat[^ ]+', 'climato-?scept[^ ]+', 'adaptations? (?:aux? )?(?:changements? )?climat[^ ]+', 'accords? de paris(?:(?: sur| pour) le climat)?', 'ecologi---(political ecology|ecologie politique)---environnement', 'ecologi---climat---(elevage|culture|territoire)', "developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'economie ecologique']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'adaptations? (?:aux? )(?:changements? )climat[^ ]+', 'climato-?scept[^ ]+', 'adaptations? (?:aux? )?(?:changements? )?climat[^ ]+', 'accords? de paris(?:(?: sur| pour) le climat)?', 'climat---environnement---ecologie', 'ecologi---(political ecology|ecologie politique)---environnement', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)', "developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'economie ecologique']</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4774,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'ecologi---climat---(elevage|culture|territoire)', "developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['(rechauffement|chang[^ ]+|context[^ ]+|att[ée]nu[^ ]+|project[^ ]+|impacts?|mod[éeè]l[^ ]+) clima[^ ]+', 'climat---environnement---ecologie', "developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
@@ -5598,7 +5614,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', '(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)']</t>
+          <t>['(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)']</t>
         </is>
       </c>
     </row>
@@ -5626,47 +5642,47 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['climat---environnement---ecologie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>LBARC2147</t>
+          <t>LBARC2236</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Histoire de l'architecture des jardins européens</t>
+          <t>Ateliers de recherche: synthèse et articulation thématiques-Eco-architectures</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['climat---environnement---ecologie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>LBARC2236</t>
+          <t>LBIRA2109</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ateliers de recherche: synthèse et articulation thématiques-Eco-architectures</t>
+          <t>Systèmes agraires</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5682,19 +5698,19 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['agro[- ]?[ée]colo[^ ]+', '(développ[^ ]+|solutions?) durab[^ ]+---(impact|environnement|[ée]cologie)']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>LBIRA2109</t>
+          <t>LBIRE2105</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Systèmes agraires</t>
+          <t>Evaluation de la qualité eau - sol - air</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5710,19 +5726,19 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['agro[- ]?[ée]colo[^ ]+', '(développ[^ ]+|solutions?) durab[^ ]+---(impact|environnement|[ée]cologie)']</t>
+          <t>['ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)', '[ée]cosyst[èe]m---(pollution|résilience)', 'degradation---ecosystem---environnement']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>LBIRE2105</t>
+          <t>LBIRF2104</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Evaluation de la qualité eau - sol - air</t>
+          <t>Ecologie et santé des forêts</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5738,47 +5754,47 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)', '[ée]cosyst[èe]m---(pollution|résilience)', 'degradation---ecosystem---environnement']</t>
+          <t>['[ée]cosyst[èe]m---(pollution|résilience)']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>LBIRF2105</t>
+          <t>LBIRF2202</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sylviculture et dendrologie</t>
+          <t>Aménagement forestier multifonctionnel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['climat---environnement---ecologie', 'biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>LBIRF2104</t>
+          <t>LBOE2120</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ecologie et santé des forêts</t>
+          <t>Conservation de la biodiversité</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5794,47 +5810,47 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['[ée]cosyst[èe]m---(pollution|résilience)']</t>
+          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>LBIRF2202</t>
+          <t>LBRAI2221</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Aménagement forestier multifonctionnel</t>
+          <t>Agriculture de précision, géomatique agricole et mécanisation</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
+          <t>['agro[- ]?[ée]colo[^ ]+']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>LBOE2120</t>
+          <t>LECON2067</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conservation de la biodiversité</t>
+          <t>Critical Analysis of Market Economies</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5850,84 +5866,84 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
+          <t>['(defis?|crises?) ecologiqu']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>LBRAI2221</t>
+          <t>LECSO2320</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Agriculture de précision, géomatique agricole et mécanisation</t>
+          <t>Innovation sociale et politiques publiques</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['agro[- ]?[ée]colo[^ ]+']</t>
+          <t>['ecologi---(anthropocene|transition (energetique|sociale|climatiq))', 'economie (sociale|solidaire)---transition (ecologiqu|social)']</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>LBRTE2201</t>
+          <t>LECSO2330</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Human and environmental toxicology</t>
+          <t>Economie sociale et transition écologique et sociale</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>["(défis?|contaminations?|droits?( de l')?) ?environnement[^ ]+"]</t>
+          <t>['ecologi---(anthropocene|transition (energetique|sociale|climatiq))', '(defis?|crises?) ecologiqu', 'economie (sociale|solidaire)---transition (ecologiqu|social)', 'economie ecologique']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>LECON2067</t>
+          <t>LFILO1310</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Critical Analysis of Market Economies</t>
+          <t>Philosophie de la nature</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -5941,12 +5957,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>LECSO2320</t>
+          <t>LGEO1111</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Innovation sociale et politiques publiques</t>
+          <t>Planète Terre et société : perspectives de la géographie</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5962,19 +5978,19 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['ecologi---(anthropocene|transition (energetique|sociale|climatiq))', 'economie (sociale|solidaire)---transition (ecologiqu|social)']</t>
+          <t>['degradation---ecosystem---environnement', '(defis?|crises?) ecologiqu']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>LECSO2330</t>
+          <t>LGEO1321</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Economie sociale et transition écologique et sociale</t>
+          <t>Géographie rurale et de la santé</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5990,47 +6006,47 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['ecologi---(anthropocene|transition (energetique|sociale|climatiq))', '(defis?|crises?) ecologiqu', 'economie (sociale|solidaire)---transition (ecologiqu|social)', 'economie ecologique']</t>
+          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>LFILO1310</t>
+          <t>LICAR1605</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Philosophie de la nature</t>
+          <t>Atelier 5 : orientation Architecture, Technologie et Développement durable</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['(defis?|crises?) ecologiqu']</t>
+          <t>['climat---environnement---ecologie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>LGEO1111</t>
+          <t>LLSMS2281</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planète Terre et société : perspectives de la géographie</t>
+          <t>Sustainable Management and Value Chains</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6046,19 +6062,19 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['degradation---ecosystem---environnement', '(defis?|crises?) ecologiqu']</t>
+          <t>['environmental (?:management|maintenance)']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>LGEO1321</t>
+          <t>LMAPR2001</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Géographie rurale et de la santé</t>
+          <t>Project "chemical &amp; materials engineering for a sustainable future"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6074,19 +6090,19 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
+          <t>['(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)', '(durabilite|materiaux)---analyse (du )?cycle de vie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'analyse de cycle de vie']</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>LLSMS2281</t>
+          <t>LSINC1233</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sustainable Management and Value Chains</t>
+          <t>Biodiversité, évolution biologique et écologique</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6102,19 +6118,19 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['environmental (?:management|maintenance)']</t>
+          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>LMAPR2001</t>
+          <t>LTARC1142</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Project "chemical &amp; materials engineering for a sustainable future"</t>
+          <t>Architecture, ville et territoire : sciences du milieu</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6130,19 +6146,19 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)', '(durabilite|materiaux)---analyse (du )?cycle de vie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'analyse de cycle de vie']</t>
+          <t>['(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)']</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>LSINC1233</t>
+          <t>LVET1312</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Biodiversité, évolution biologique et écologique</t>
+          <t>Ecologie appliquée aux animaux domestiques</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6158,131 +6174,131 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['biodiversite---(erosion|effondrement|impact|consequence)---(ecologie|environnement|ecosystem)']</t>
+          <t>['climat---environnement---ecologie', 'ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LTARC1142</t>
+          <t>WMDS1106</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Architecture, ville et territoire : sciences du milieu</t>
+          <t>Philosophie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)', '(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)']</t>
+          <t>['(defis?|crises?) ecologiqu']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>LVET1312</t>
+          <t>EECSO2503</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ecologie appliquée aux animaux domestiques</t>
+          <t>Economie écologique et gestion de la transition - ULiège</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['ecologi---climat---(elevage|culture|territoire)']</t>
+          <t>['economie ecologique']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>WMDS1106</t>
+          <t>LBARC1366</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Philosophie</t>
+          <t>Architecture durable</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['(defis?|crises?) ecologiqu']</t>
+          <t>['architectures? durab[^ ]+']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>EECSO2503</t>
+          <t>LBIR2050</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Economie écologique et gestion de la transition - ULiège</t>
+          <t>Enjeux du développement durable et de la transition</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['economie ecologique']</t>
+          <t>['developpements? durables?---transition']</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>LBARC1366</t>
+          <t>LBIR2050A</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Architecture durable</t>
+          <t>Enjeux du développement durable et de la transition</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6298,47 +6314,47 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['architectures? durab[^ ]+']</t>
+          <t>['developpements? durables?---transition']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LBIR2050</t>
+          <t>LBIRE2130</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Enjeux du développement durable et de la transition</t>
+          <t>Évaluation d'impact environnemental: projet et introduction à la gestion de bases de données</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['developpements? durables?---transition']</t>
+          <t>['analyse de cycle de vie']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>LBIR2050A</t>
+          <t>LBIRE2131</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Enjeux du développement durable et de la transition</t>
+          <t>Evaluation d'impact environnemental: diagnostic et indicateurs</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6354,47 +6370,47 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['developpements? durables?---transition']</t>
+          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(durabilite|materiaux)---analyse (du )?cycle de vie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'analyse de cycle de vie']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>LBIRE2130</t>
+          <t>LBIRF2102</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Évaluation d'impact environnemental: projet et introduction à la gestion de bases de données</t>
+          <t>Transformation et industries du bois</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FP</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['analyse de cycle de vie']</t>
+          <t>['gestio[^ ]+ durab[^ ]+']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>LBIRE2131</t>
+          <t>LDROP2061</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Evaluation d'impact environnemental: diagnostic et indicateurs</t>
+          <t>Droit général de l'environnement et du cadre de vie</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6410,19 +6426,19 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement", '(durabilite|materiaux)---analyse (du )?cycle de vie', '(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'analyse de cycle de vie']</t>
+          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>LBIRF2102</t>
+          <t>LDVLD1300</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transformation et industries du bois</t>
+          <t>Economie écologique</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6438,19 +6454,19 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['gestio[^ ]+ durab[^ ]+']</t>
+          <t>['economie ecologique', 'ecological economics']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LDROP2061</t>
+          <t>LECON2257</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Droit général de l'environnement et du cadre de vie</t>
+          <t>Gestion des conflits, problématisation foncière et environnementale (ULg- Gembloux)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6473,12 +6489,12 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>LDVLD1300</t>
+          <t>LENVI2002</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Economie écologique</t>
+          <t>Séminaire en science et gestion de l'environnement</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6494,19 +6510,19 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['economie ecologique', 'ecological economics']</t>
+          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>LECON2257</t>
+          <t>LENVI2006</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gestion des conflits, problématisation foncière et environnementale (ULg- Gembloux)</t>
+          <t>Sociologie de l'environnement</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6529,12 +6545,12 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>LENVI2002</t>
+          <t>LFSA2245</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Séminaire en science et gestion de l'environnement</t>
+          <t>Environnement et entreprise</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6550,19 +6566,19 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
+          <t>['environnement---(de)?pollution---developpement durable']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>LENVI2006</t>
+          <t>LGEO2110</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sociologie de l'environnement</t>
+          <t>Mondialisation, développement et environnement</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6578,19 +6594,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
+          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LFSA2245</t>
+          <t>LGEO2110B</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Environnement et entreprise</t>
+          <t>Mondialisation, développement et environnement</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6606,19 +6622,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['environnement---(de)?pollution---developpement durable']</t>
+          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>LGEO2110</t>
+          <t>LLSMS2098</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Mondialisation, développement et environnement</t>
+          <t>Corporate Social Responsibility (Names from A to K )</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6634,19 +6650,19 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['sustainable development goals']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>LGEO2110B</t>
+          <t>LLSMS2099</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mondialisation, développement et environnement</t>
+          <t>Corporate Social Responsibility</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6662,19 +6678,19 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>['sustainable development goals']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>LICAR1605</t>
+          <t>LLSMS2397</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Atelier 5 : orientation Architecture, Technologie et Développement durable</t>
+          <t>Maatschappelijke verantwoordelijkheid van bedrijven</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6690,19 +6706,19 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)', 'environnement---(de)?pollution---developpement durable']</t>
+          <t>['duurzame ontwikkeling']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>LLSMS2098</t>
+          <t>LLSMS2398</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility (Names from A to K )</t>
+          <t>Corporate Social Responsibility (Names from L to Z)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6725,12 +6741,12 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LLSMS2099</t>
+          <t>LLSMX2001</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility</t>
+          <t>Regenerative Economy</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6746,19 +6762,19 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['sustainable development goals']</t>
+          <t>['(circular|regenerative) economy', 'economy of the commons']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>LLSMS2397</t>
+          <t>LMAPR2001A</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Maatschappelijke verantwoordelijkheid van bedrijven</t>
+          <t>Project "chemical &amp; materials engineering for a sustainable future"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6774,19 +6790,19 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['duurzame ontwikkeling']</t>
+          <t>['(durabilite|materiaux)---analyse (du )?cycle de vie', 'analyse de cycle de vie']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>LLSMS2398</t>
+          <t>LTARC1250</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Corporate Social Responsibility (Names from L to Z)</t>
+          <t>Théories du développement durable</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6802,47 +6818,47 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['sustainable development goals']</t>
+          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>LLSMX2001</t>
+          <t>LURBA2950</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Regenerative Economy</t>
+          <t>Systèmes de décision en urbanisme et développement territorial</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="D95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['(circular|regenerative) economy', 'economy of the commons']</t>
+          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>LMAPR2001A</t>
+          <t>MSPRI2160</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Project "chemical &amp; materials engineering for a sustainable future"</t>
+          <t>Genre et développement durable</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6858,103 +6874,91 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['(durabilite|materiaux)---analyse (du )?cycle de vie', 'analyse de cycle de vie']</t>
+          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LTARC1250</t>
+          <t>LBIO1356</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Théories du développement durable</t>
+          <t>Travaux pratiques intégrés d'écologie et biogéographie : biodiversité des milieux naturels</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97" t="b">
-        <v>1</v>
-      </c>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>LURBA2950</t>
+          <t>LBIO1357</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Systèmes de décision en urbanisme et développement territorial</t>
+          <t>Travaux pratiques intégrés d'écologie et de biogéographie : biogéographie de la Belgique</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="D98" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" t="b">
-        <v>1</v>
-      </c>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>MSPRI2160</t>
+          <t>LBRAT2101B</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Genre et développement durable</t>
+          <t>Aménagement du territoire: Principes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99" t="b">
-        <v>1</v>
-      </c>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>["developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement"]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>LBIO1356</t>
+          <t>LECON2051</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Travaux pratiques intégrés d'écologie et biogéographie : biodiversité des milieux naturels</t>
+          <t>Travail, chômage et politiques d'emploi</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6973,12 +6977,12 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>LBIO1357</t>
+          <t>LGEO2230</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Travaux pratiques intégrés d'écologie et de biogéographie : biogéographie de la Belgique</t>
+          <t>Géographie médicale et de la santé</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6997,12 +7001,12 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LBRAT2101B</t>
+          <t>LINMA2510</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Aménagement du territoire: Principes</t>
+          <t>Mathematical ecology</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -7021,12 +7025,12 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>LECON2051</t>
+          <t>LPSP1001</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Travail, chômage et politiques d'emploi</t>
+          <t>Psychologie générale : processus et théories</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -7045,12 +7049,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>LGEO2230</t>
+          <t>LTRAD2171</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Géographie médicale et de la santé</t>
+          <t>Ateliers de traduction spécialisée - Turc</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -7061,78 +7065,6 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>LINMA2510</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Mathematical ecology</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>LPSP1001</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Psychologie générale : processus et théories</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>LTRAD2171</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Ateliers de traduction spécialisée - Turc</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7203,7 +7135,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -7251,125 +7183,125 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ecologi---climat---(elevage|culture|territoire)</t>
+          <t>climat---environnement---ecologie</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>[ée]cosyst[èe]m---(pollution|résilience)</t>
+          <t>ecologi---climat---(elevage|agriculture|(developpement|amenagement) du territoire)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)</t>
+          <t>[ée]cosyst[èe]m---(pollution|résilience)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>environnement---(de)?pollution---developpement durable</t>
+          <t>(developpement durable|sustainable development)---environnement---(ecolog[iy]|écosystem)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>(?:[ée]missions? )?(?:de )?gaz (?:[àa] )?(?:effets? )(?:de )?serre</t>
+          <t>environnement---(de)?pollution---developpement durable</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement</t>
+          <t>(?:[ée]missions? )?(?:de )?gaz (?:[àa] )?(?:effets? )(?:de )?serre</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>droit (de l')?environnement---protection (de l')environnement</t>
+          <t>developpement durable---(problem(e|atique)s?|perturbations?|impacts?|droits?) (d'|de l')?environnement</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>adaptations? (?:aux? )(?:changements? )climat[^ ]+</t>
+          <t>droit (de l')?environnement---protection (de l')environnement</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7385,7 +7317,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>climato-?scept[^ ]+</t>
+          <t>adaptations? (?:aux? )(?:changements? )climat[^ ]+</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7401,7 +7333,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>accords? de paris(?:(?: sur| pour) le climat)?</t>
+          <t>climato-?scept[^ ]+</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7417,7 +7349,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ecologi---(political ecology|ecologie politique)---environnement</t>
+          <t>accords? de paris(?:(?: sur| pour) le climat)?</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7433,39 +7365,39 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>economie ecologique</t>
+          <t>ecologi---(political ecology|ecologie politique)---environnement</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>strategies? clima[^ ]+</t>
+          <t>economie ecologique</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>enjeux? clima[^ ]+</t>
+          <t>strategies? clima[^ ]+</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7481,7 +7413,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>([ée]lectri[^ ]+|panneaux?) photovol[^ ]+</t>
+          <t>enjeux? clima[^ ]+</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -7497,87 +7429,87 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>developpements? durables?---transition</t>
+          <t>([ée]lectri[^ ]+|panneaux?) photovol[^ ]+</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>analyse de cycle de vie</t>
+          <t>developpements? durables?---transition</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>justice climat[^ ]+</t>
+          <t>analyse de cycle de vie</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>developpement durable---(anthropocene|transition (energ|social|climat))</t>
+          <t>justice climat[^ ]+</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>captures? (?:du |de )?(?:co2|dioxyde de carbone)</t>
+          <t>developpement durable---(anthropocene|transition (energ|social|climat))</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>questions? clima[^ ]+</t>
+          <t>captures? (?:du |de )?(?:co2|dioxyde de carbone)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7587,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>for[çc]ages? clima[^ ]+</t>
+          <t>questions? clima[^ ]+</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7609,7 +7541,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>climat[^ ]+ (?:change|sceptic|processus|physics|mitigation|strategy|conditions)</t>
+          <t>for[çc]ages? clima[^ ]+</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7619,13 +7551,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>consom[^ ]+ (?:d')?[ée]nerg[^ ]+</t>
+          <t>climat[^ ]+ (?:change|sceptic|processus|physics|mitigation|strategy|conditions)</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -7635,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>transiti[^ ]+ [ée]nerg[^ ]+</t>
+          <t>consom[^ ]+ (?:d')?[ée]nerg[^ ]+</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7657,11 +7589,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>architectures? durab[^ ]+</t>
+          <t>transiti[^ ]+ [ée]nerg[^ ]+</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -7673,23 +7605,23 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>(?:green|renewable|low carbon) energy</t>
+          <t>architectures? durab[^ ]+</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>effica[^ ]+ [ée]nerg[^ ]+</t>
+          <t>(?:green|renewable|low carbon) energy</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7705,23 +7637,23 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ecologi---(anthropocene|transition (energetique|sociale|climatiq))</t>
+          <t>effica[^ ]+ [ée]nerg[^ ]+</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)</t>
+          <t>ecologi---(anthropocene|transition (energetique|sociale|climatiq))</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -7731,20 +7663,20 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>agro[- ]?[ée]colo[^ ]+</t>
+          <t>(pertes?|déteriorations?|impacts?|contamination) ([ée]cosyst[^ ]+|[ée]colo[^ ]+)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -7753,14 +7685,14 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>(développ[^ ]+|solutions?) durab[^ ]+---(impact|environnement|[ée]cologie)</t>
+          <t>agro[- ]?[ée]colo[^ ]+</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -7769,7 +7701,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)</t>
+          <t>(développ[^ ]+|solutions?) durab[^ ]+---(impact|environnement|[ée]cologie)</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -7785,33 +7717,33 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>degradation---ecosystem---environnement</t>
+          <t>ecosystem---(perturbations?|degradations?|pollutions?)---(anthropiq|anthropocene)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>(défis?|contaminations?|droits?( de l')?) ?environnement[^ ]+</t>
+          <t>degradation---ecosystem---environnement</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
